--- a/data/trans_dic/P28A_1_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P28A_1_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -534,7 +535,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha realizado menos ejercicio respecto al último mes</t>
+          <t>Población que ha realizado menos ejercicio respecto al último mes (tasa de respuesta: 99,95%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -656,62 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>35,53%</t>
+          <t>41,4%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>25,94%</t>
+          <t>35,57%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>30,71%</t>
+          <t>15,99%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>14,73%</t>
+          <t>19,39%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>37,93%</t>
+          <t>31,95%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>34,74%</t>
+          <t>35,43%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>46,53%</t>
+          <t>43,76%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>17,19%</t>
+          <t>16,17%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>36,85%</t>
+          <t>35,94%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>30,56%</t>
+          <t>35,49%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>38,0%</t>
+          <t>30,76%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>15,81%</t>
+          <t>17,81%</t>
         </is>
       </c>
     </row>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>23,24; 48,08</t>
+          <t>22,79; 58,44</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>15,86; 37,43</t>
+          <t>18,91; 52,76</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>18,7; 43,85</t>
+          <t>6,13; 33,67</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,05; 26,61</t>
+          <t>7,52; 36,85</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>26,22; 50,5</t>
+          <t>19,48; 47,1</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>23,89; 46,51</t>
+          <t>22,12; 50,49</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>34,45; 57,75</t>
+          <t>30,03; 58,59</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>9,22; 27,1</t>
+          <t>6,91; 29,26</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>28,39; 45,55</t>
+          <t>25,73; 47,11</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>22,86; 39,26</t>
+          <t>25,03; 47,35</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>29,33; 46,78</t>
+          <t>21,12; 41,32</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>10,21; 23,11</t>
+          <t>9,92; 28,98</t>
         </is>
       </c>
     </row>
@@ -796,62 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>49,8%</t>
+          <t>56,27%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>16,91%</t>
+          <t>15,33%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>28,31%</t>
+          <t>38,42%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>37,13%</t>
+          <t>45,52%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>50,9%</t>
+          <t>48,99%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>25,11%</t>
+          <t>22,23%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>29,5%</t>
+          <t>20,64%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>31,4%</t>
+          <t>24,1%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>50,37%</t>
+          <t>52,68%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>21,19%</t>
+          <t>18,74%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>28,89%</t>
+          <t>30,08%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>34,46%</t>
+          <t>35,87%</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>34,66; 65,78</t>
+          <t>36,37; 75,24</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,48; 28,63</t>
+          <t>5,82; 28,88</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>15,53; 47,88</t>
+          <t>19,63; 65,3</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>21,13; 58,64</t>
+          <t>18,96; 71,42</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>40,62; 61,45</t>
+          <t>35,57; 61,42</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>16,69; 36,3</t>
+          <t>12,57; 34,9</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>20,71; 40,4</t>
+          <t>11,24; 31,87</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>21,95; 42,93</t>
+          <t>13,95; 36,46</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>41,68; 60,0</t>
+          <t>41,51; 66,14</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>15,41; 29,54</t>
+          <t>11,38; 28,33</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>21,75; 40,1</t>
+          <t>19,95; 45,7</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>24,37; 48,05</t>
+          <t>22,81; 55,22</t>
         </is>
       </c>
     </row>
@@ -936,62 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>62,92%</t>
+          <t>60,76%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>25,38%</t>
+          <t>25,37%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>31,46%</t>
+          <t>25,33%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>27,7%</t>
+          <t>17,06%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>55,79%</t>
+          <t>54,68%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>26,55%</t>
+          <t>22,19%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>28,08%</t>
+          <t>24,78%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>18,68%</t>
+          <t>21,71%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>59,08%</t>
+          <t>57,07%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>26,01%</t>
+          <t>23,4%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>29,7%</t>
+          <t>24,99%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>23,14%</t>
+          <t>19,82%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>52,09; 72,28</t>
+          <t>47,18; 72,78</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>16,84; 36,42</t>
+          <t>15,44; 39,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>22,22; 45,38</t>
+          <t>15,08; 37,15</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>17,61; 45,7</t>
+          <t>9,01; 27,97</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>47,54; 63,51</t>
+          <t>44,99; 64,34</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>19,75; 34,97</t>
+          <t>15,24; 30,6</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>20,42; 35,88</t>
+          <t>16,24; 33,12</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>12,66; 26,64</t>
+          <t>14,32; 30,58</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>52,88; 65,42</t>
+          <t>49,32; 64,25</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>20,65; 32,56</t>
+          <t>17,2; 30,65</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>23,65; 37,82</t>
+          <t>18,73; 31,56</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>16,9; 32,71</t>
+          <t>13,54; 26,02</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>59,69%</t>
+          <t>57,03%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>17,68%</t>
+          <t>17,9%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>29,66%</t>
+          <t>27,54%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>22,0%</t>
+          <t>24,05%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>64,49%</t>
+          <t>60,82%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>29,08%</t>
+          <t>24,26%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>31,86%</t>
+          <t>26,12%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>25,89%</t>
+          <t>22,03%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>62,32%</t>
+          <t>59,07%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>24,03%</t>
+          <t>21,33%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>30,86%</t>
+          <t>26,78%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>24,09%</t>
+          <t>22,99%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>51,06; 67,98</t>
+          <t>46,1; 67,47</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,43; 25,3</t>
+          <t>11,35; 26,95</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>21,01; 38,04</t>
+          <t>18,83; 38,14</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>15,61; 30,62</t>
+          <t>15,99; 34,37</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>57,53; 71,25</t>
+          <t>51,11; 69,82</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>21,87; 37,61</t>
+          <t>16,82; 33,53</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>25,44; 39,71</t>
+          <t>18,95; 35,36</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>19,16; 33,19</t>
+          <t>14,66; 31,24</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>56,92; 67,4</t>
+          <t>51,8; 65,76</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>19,37; 29,93</t>
+          <t>16,38; 29,13</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>25,31; 36,45</t>
+          <t>20,84; 34,29</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>19,45; 29,35</t>
+          <t>17,37; 30,42</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1217,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>65,68%</t>
+          <t>72,5%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>23,51%</t>
+          <t>24,33%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>18,5%</t>
+          <t>21,26%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>19,86%</t>
+          <t>20,45%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>66,13%</t>
+          <t>74,2%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>24,05%</t>
+          <t>16,72%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>28,9%</t>
+          <t>35,06%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>22,05%</t>
+          <t>16,69%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>65,9%</t>
+          <t>73,23%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>23,76%</t>
+          <t>21,1%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>23,37%</t>
+          <t>26,99%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>20,9%</t>
+          <t>18,83%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>56,99; 75,06</t>
+          <t>59,94; 82,63</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>16,08; 32,09</t>
+          <t>14,69; 35,92</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>12,2; 26,81</t>
+          <t>12,49; 32,61</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>12,96; 29,0</t>
+          <t>12,0; 31,8</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>55,65; 74,48</t>
+          <t>58,81; 84,91</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>17,21; 34,48</t>
+          <t>8,97; 28,73</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>20,09; 38,95</t>
+          <t>23,18; 49,06</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>14,47; 31,12</t>
+          <t>8,09; 28,56</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>59,75; 72,59</t>
+          <t>64,83; 80,7</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>18,24; 30,26</t>
+          <t>14,56; 29,97</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>17,51; 29,12</t>
+          <t>18,34; 35,78</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>15,65; 27,09</t>
+          <t>12,28; 26,46</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1357,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>60,76%</t>
+          <t>70,43%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>21,53%</t>
+          <t>28,33%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>17,18%</t>
+          <t>14,52%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>13,31%</t>
+          <t>12,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>69,4%</t>
+          <t>78,7%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>33,12%</t>
+          <t>41,79%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>29,43%</t>
+          <t>26,77%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>25,81%</t>
+          <t>19,86%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>65,43%</t>
+          <t>74,91%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>27,92%</t>
+          <t>35,83%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>23,56%</t>
+          <t>21,21%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>20,87%</t>
+          <t>16,33%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>49,94; 70,54</t>
+          <t>53,3; 82,83</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>13,14; 31,82</t>
+          <t>15,79; 44,95</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>9,74; 26,84</t>
+          <t>6,89; 27,31</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>6,39; 22,83</t>
+          <t>4,38; 25,28</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>58,59; 78,21</t>
+          <t>64,41; 89,89</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>23,32; 43,3</t>
+          <t>28,37; 57,44</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>19,91; 40,26</t>
+          <t>14,57; 42,05</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>8,32; 59,35</t>
+          <t>8,2; 36,62</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>57,82; 72,55</t>
+          <t>65,21; 83,87</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>21,45; 35,73</t>
+          <t>26,53; 46,81</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>17,52; 30,74</t>
+          <t>13,47; 31,03</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>10,31; 52,62</t>
+          <t>8,94; 27,01</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1497,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>56,92%</t>
+          <t>60,25%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>21,77%</t>
+          <t>23,31%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>26,77%</t>
+          <t>25,02%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>23,04%</t>
+          <t>24,34%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>57,96%</t>
+          <t>57,37%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>28,57%</t>
+          <t>26,34%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>32,02%</t>
+          <t>28,56%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>23,45%</t>
+          <t>20,51%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>57,47%</t>
+          <t>58,71%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>25,37%</t>
+          <t>24,94%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>29,42%</t>
+          <t>26,87%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>23,25%</t>
+          <t>22,38%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,69 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>52,34; 61,51</t>
+          <t>54,57; 66,51</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>18,39; 25,97</t>
+          <t>18,5; 28,49</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>22,88; 31,78</t>
+          <t>20,07; 33,15</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>18,41; 29,87</t>
+          <t>18,06; 34,03</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>54,17; 61,95</t>
+          <t>52,32; 62,32</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>24,91; 32,37</t>
+          <t>21,87; 30,79</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>28,34; 36,12</t>
+          <t>24,2; 33,36</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>19,68; 31,43</t>
+          <t>16,42; 25,17</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>54,38; 60,62</t>
+          <t>55,12; 62,41</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>22,74; 28,0</t>
+          <t>21,95; 28,51</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>26,56; 32,6</t>
+          <t>23,51; 30,93</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>20,05; 28,3</t>
+          <t>18,73; 28,22</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1639,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha realizado menos ejercicio respecto al último mes (tasa de respuesta: 99,95%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>35650</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>38064</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>16909</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>24736</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>37559</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>47474</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>52554</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>19807</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>73209</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>85537</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>69464</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>44543</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>19626; 50325</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>20237; 56471</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>6476; 35600</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>9598; 47008</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>22906; 55374</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>29643; 67652</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>36058; 70359</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>8472; 35847</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>52412; 95945</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>60327; 114134</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>47689; 93302</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>24808; 72476</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>76993</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>25867</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>55094</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>70218</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>65310</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>36706</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>26152</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>30440</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>142303</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>62573</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>81247</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>100658</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>49770; 102953</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>9827; 48728</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>28145; 93641</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>29256; 110179</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>47424; 81881</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>20757; 57618</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>14245; 40385</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>17618; 46058</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>112136; 178674</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>37996; 94593</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>53882; 123445</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>63992; 154951</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>84899</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>41107</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>34030</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>23480</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>117781</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>58598</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>51876</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>43516</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>202680</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>99704</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>85905</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>66997</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>65921; 101694</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>25019; 63206</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>20267; 49921</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>12398; 38498</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>96909; 138586</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>40252; 80809</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>34006; 69351</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>28705; 61305</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>175157; 228151</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>73309; 130596</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>64365; 108474</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>45796; 87969</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>106.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>93230</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>33411</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>44395</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>37567</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>116340</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>52978</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>48563</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>37987</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>209569</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>86389</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>92957</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>75554</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>75370; 110298</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>21193; 50314</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>30363; 61484</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>24984; 53694</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>97755; 133553</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>36738; 73219</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>35227; 65738</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>25278; 53883</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>183755; 233307</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>66368; 118007</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>72354; 119024</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>57098; 99983</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>100700</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>38299</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>28076</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>25192</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>76783</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>19429</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>32888</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>15464</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>177483</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>57728</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>60963</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>40656</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>83251; 114770</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>23124; 56551</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>16498; 43072</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>14778; 39178</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>60859; 87863</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>10420; 33379</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>21749; 46026</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>7497; 26463</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>157137; 195585</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>39846; 81993</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>41439; 80818</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>26501; 57113</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>63551</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>30974</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>12682</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>10820</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>84224</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>57507</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>28148</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>21963</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>147774</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>88481</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>40830</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>32783</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>48097; 74742</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>17263; 49135</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>6013; 23850</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>3949; 22786</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>68937; 96198</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>39034; 79038</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>15314; 44212</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>9066; 40506</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>128624; 165447</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>65510; 115577</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>25932; 59725</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>17941; 54227</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>183.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>228.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>113.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>411.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>179.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>189.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>143.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>455023</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>207720</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>191186</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>192014</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>497997</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>272692</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>240180</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>169177</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>953019</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>480412</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>431366</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>361191</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>412134; 502319</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>164868; 253934</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>153381; 253336</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>142487; 268480</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>454171; 540952</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>226407; 318767</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>203511; 280583</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>135500; 207701</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>894854; 1013095</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>422872; 549237</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>377345; 496496</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>302353; 455422</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>